--- a/docs/Task Assignments - Requirements_project18.xlsx
+++ b/docs/Task Assignments - Requirements_project18.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axjh03/Library/CloudStorage/OneDrive-UTArlington/semester/Spring24/CSE3310/Project_Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axjh03/cse3310_sp24_group_18/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FFB750-FD38-B94F-B2B7-D2704DFBE5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAA7B99-B726-214F-956D-5EFF2B971563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t xml:space="preserve">Task </t>
   </si>
@@ -46,93 +46,92 @@
     <t>Completed By</t>
   </si>
   <si>
-    <t>Introduction</t>
-  </si>
-  <si>
-    <t>David Akinmade</t>
-  </si>
-  <si>
-    <t>Context Diagram</t>
-  </si>
-  <si>
-    <t>Ujjwal Sood</t>
-  </si>
-  <si>
-    <t>User Interface (lobby and leaderboard)</t>
-  </si>
-  <si>
     <t>Alok Jha</t>
   </si>
   <si>
-    <t>26th Feb, 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Interface </t>
-  </si>
-  <si>
     <t>Ravi Ray</t>
   </si>
   <si>
-    <t>System Requirements (write requirements)</t>
-  </si>
-  <si>
-    <t>Saad Khairullah</t>
-  </si>
-  <si>
-    <t>System Requirements (remaining parts of spreadsheet)</t>
-  </si>
-  <si>
-    <t>Daniel Bonta</t>
-  </si>
-  <si>
-    <t>Unknown List</t>
-  </si>
-  <si>
-    <t>Everyone</t>
-  </si>
-  <si>
-    <t>Review for consistency and completeness</t>
-  </si>
-  <si>
-    <t>28th Feb, 2024</t>
-  </si>
-  <si>
-    <t>1st Mar, 2024</t>
-  </si>
-  <si>
-    <t>4th Mar, 2024</t>
-  </si>
-  <si>
-    <t>3rd Mar, 2024</t>
-  </si>
-  <si>
-    <t>Completed On</t>
-  </si>
-  <si>
-    <t>22th Mar, 2024</t>
-  </si>
-  <si>
-    <t>Class Diagram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source Code </t>
+    <t>Game.java</t>
+  </si>
+  <si>
+    <t>App.java</t>
+  </si>
+  <si>
+    <t>Chat.java</t>
+  </si>
+  <si>
+    <t>HttpServer.java</t>
+  </si>
+  <si>
+    <t>Player.java</t>
+  </si>
+  <si>
+    <t>Java ( BackEnd )</t>
+  </si>
+  <si>
+    <t>HTML, CSS and JS ( Front End )</t>
+  </si>
+  <si>
+    <t>index.html</t>
+  </si>
+  <si>
+    <t>All other CSS file</t>
+  </si>
+  <si>
+    <t>David Akinmade, Ujjwal Sood, Alok Jha</t>
+  </si>
+  <si>
+    <t>Alok Jha, Ujjwal Sood</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Deploy to cse3310.org site</t>
+  </si>
+  <si>
+    <t>words.txt</t>
+  </si>
+  <si>
+    <t>Foul word removement</t>
+  </si>
+  <si>
+    <t>websocket.js</t>
+  </si>
+  <si>
+    <t>navigation.js</t>
+  </si>
+  <si>
+    <t>Unit Test</t>
+  </si>
+  <si>
+    <t>AppTest.java</t>
+  </si>
+  <si>
+    <t>Daniel Bonta,Saad Khairullah</t>
+  </si>
+  <si>
+    <t>Requirement Spreadsheet</t>
+  </si>
+  <si>
+    <t>Verify and write requirements</t>
+  </si>
+  <si>
+    <t>Daniel Bonta, Alok Jha</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -160,7 +159,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,10 +177,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,175 +496,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E12"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="51.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="1"/>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -680,6 +704,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006A235BE1EAAD5A4D9F9361C4F7AC46E5" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a68a453477cb4b67aa3ce0833899d920">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="018096ce9596d278040956bfcb726bd1">
     <xsd:element name="properties">
@@ -793,15 +826,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD420F8B-B1B6-486E-A717-D576220FE945}">
   <ds:schemaRefs>
@@ -818,6 +842,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F630184-3D06-41C1-859F-60E5E58E6D4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3827D68F-A9FF-4357-89AF-880218BD1F37}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -831,12 +863,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F630184-3D06-41C1-859F-60E5E58E6D4E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>